--- a/data/trans_orig/IQ19B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ19B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D418BD73-04C2-492F-99AC-8AA942401B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7694D9E-C52A-446B-A6DE-825EA20750EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D6497E07-0FD3-4F23-87C0-5563936259FD}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7F3D7276-3EEB-4392-8412-07B61A0FD84B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -86,6 +86,18 @@
     <t>94,04%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -96,18 +108,6 @@
   </si>
   <si>
     <t>99,49%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -508,7 +508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6D346D-8AFC-4B22-AE38-609163C73000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B603C-5C48-4E39-AE41-59EC46922E73}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -730,10 +730,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>159364</v>
+        <v>67093</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -745,10 +745,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="I6" s="7">
-        <v>142204</v>
+        <v>52385</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -760,10 +760,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>379</v>
+        <v>154</v>
       </c>
       <c r="N6" s="7">
-        <v>301568</v>
+        <v>119478</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
@@ -781,10 +781,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>159364</v>
+        <v>67093</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -796,10 +796,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="I7" s="7">
-        <v>142204</v>
+        <v>52385</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -811,10 +811,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>379</v>
+        <v>154</v>
       </c>
       <c r="N7" s="7">
-        <v>301568</v>
+        <v>119478</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -834,10 +834,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="D8" s="7">
-        <v>67093</v>
+        <v>159364</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -849,10 +849,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="I8" s="7">
-        <v>52385</v>
+        <v>142204</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -864,10 +864,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>154</v>
+        <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>119478</v>
+        <v>301568</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -885,10 +885,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="D9" s="7">
-        <v>67093</v>
+        <v>159364</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -900,10 +900,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="I9" s="7">
-        <v>52385</v>
+        <v>142204</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -915,10 +915,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>154</v>
+        <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>119478</v>
+        <v>301568</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IQ19B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ19B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7694D9E-C52A-446B-A6DE-825EA20750EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E3EE63-0A66-4809-AFF6-FA52B9C71067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7F3D7276-3EEB-4392-8412-07B61A0FD84B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{203F4605-6F30-45F5-AAE2-F3526E3B06CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
-  <si>
-    <t>Menores según si pueden recordar hace cuanto que fueron al dentista por última vez en 2023 (Tasa respuesta: 29,38%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
+  <si>
+    <t>Menores según si pueden recordar hace cuanto fueron al dentista por última vez en 2023 (Tasa respuesta: 29,38%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,40 +74,49 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>88,85%</t>
+    <t>69,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -117,6 +126,9 @@
   </si>
   <si>
     <t>99,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -127,7 +139,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,39 +235,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -307,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -418,13 +430,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -433,6 +438,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -497,19 +509,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B603C-5C48-4E39-AE41-59EC46922E73}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14920946-9B06-4EDA-A1D0-8774BDA35F27}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -626,10 +658,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>8939</v>
+        <v>3261</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -641,10 +673,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>6777</v>
+        <v>2477</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -656,10 +688,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>15716</v>
+        <v>5738</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -677,10 +709,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>8939</v>
+        <v>3261</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -692,10 +724,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>6777</v>
+        <v>2477</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -707,10 +739,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>15716</v>
+        <v>5738</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -730,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7">
-        <v>67093</v>
+        <v>38000</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -745,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>52385</v>
+        <v>28452</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -760,10 +792,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="N6" s="7">
-        <v>119478</v>
+        <v>66452</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
@@ -781,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>67093</v>
+        <v>38000</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -796,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>52385</v>
+        <v>28452</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -811,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>119478</v>
+        <v>66452</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -834,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7">
-        <v>159364</v>
+        <v>69202</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -849,10 +881,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="I8" s="7">
-        <v>142204</v>
+        <v>68259</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -864,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="N8" s="7">
-        <v>301568</v>
+        <v>137461</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -885,10 +917,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7">
-        <v>159364</v>
+        <v>69202</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -900,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="I9" s="7">
-        <v>142204</v>
+        <v>68259</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -915,10 +947,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="N9" s="7">
-        <v>301568</v>
+        <v>137461</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -932,52 +964,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>150</v>
+      </c>
+      <c r="D10" s="7">
+        <v>124934</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>138</v>
+      </c>
+      <c r="I10" s="7">
+        <v>102178</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
         <v>288</v>
       </c>
-      <c r="D10" s="7">
-        <v>235396</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>276</v>
-      </c>
-      <c r="I10" s="7">
-        <v>201366</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>564</v>
-      </c>
       <c r="N10" s="7">
-        <v>436762</v>
+        <v>227111</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -989,55 +1021,165 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>150</v>
+      </c>
+      <c r="D11" s="7">
+        <v>124934</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>138</v>
+      </c>
+      <c r="I11" s="7">
+        <v>102178</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
         <v>288</v>
       </c>
-      <c r="D11" s="7">
+      <c r="N11" s="7">
+        <v>227111</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>288</v>
+      </c>
+      <c r="D12" s="7">
         <v>235396</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>276</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>201366</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>564</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>436762</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>13</v>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>288</v>
+      </c>
+      <c r="D13" s="7">
+        <v>235396</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>276</v>
+      </c>
+      <c r="I13" s="7">
+        <v>201366</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>564</v>
+      </c>
+      <c r="N13" s="7">
+        <v>436762</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IQ19B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ19B_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E3EE63-0A66-4809-AFF6-FA52B9C71067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BACCD8A-37CC-435A-A739-D9EF2A1A0CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{203F4605-6F30-45F5-AAE2-F3526E3B06CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E01CDEC-1E97-4592-993A-B415966A0B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14920946-9B06-4EDA-A1D0-8774BDA35F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B60AD6-1A77-4C8B-8514-0C7EA9F2BE76}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IQ19B_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ19B_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BACCD8A-37CC-435A-A739-D9EF2A1A0CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{027535FF-9C30-4078-AD13-1D3FE38F1975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E01CDEC-1E97-4592-993A-B415966A0B1F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F5A92321-6540-48F2-A275-421C09E255D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si pueden recordar hace cuanto fueron al dentista por última vez en 2023 (Tasa respuesta: 29,38%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,49 +74,49 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
     <t>84,31%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>95,66%</t>
+  </si>
+  <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
     <t>98,02%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>97,87%</t>
+  </si>
+  <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
     <t>98,87%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>98,62%</t>
+  </si>
+  <si>
     <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B60AD6-1A77-4C8B-8514-0C7EA9F2BE76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E32F5AD-F5C3-403C-AC76-972805305B21}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -658,10 +658,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3261</v>
+        <v>2440</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -673,10 +673,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2477</v>
+        <v>3265</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>5738</v>
+        <v>5704</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -709,25 +709,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2440</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
-        <v>3261</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
       <c r="I5" s="7">
-        <v>2477</v>
+        <v>3265</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -742,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>5738</v>
+        <v>5704</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -762,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>38000</v>
+        <v>28172</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -777,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I6" s="7">
-        <v>28452</v>
+        <v>40042</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -795,7 +795,7 @@
         <v>96</v>
       </c>
       <c r="N6" s="7">
-        <v>66452</v>
+        <v>68214</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
@@ -813,25 +813,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
+        <v>28172</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>53</v>
       </c>
-      <c r="D7" s="7">
-        <v>38000</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>43</v>
-      </c>
       <c r="I7" s="7">
-        <v>28452</v>
+        <v>40042</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -846,7 +846,7 @@
         <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>66452</v>
+        <v>68214</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -866,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7">
-        <v>69202</v>
+        <v>67027</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -881,10 +881,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I8" s="7">
-        <v>68259</v>
+        <v>71993</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -899,7 +899,7 @@
         <v>169</v>
       </c>
       <c r="N8" s="7">
-        <v>137461</v>
+        <v>139020</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -917,25 +917,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>89</v>
+      </c>
+      <c r="D9" s="7">
+        <v>67027</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>80</v>
       </c>
-      <c r="D9" s="7">
-        <v>69202</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>89</v>
-      </c>
       <c r="I9" s="7">
-        <v>68259</v>
+        <v>71993</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -950,7 +950,7 @@
         <v>169</v>
       </c>
       <c r="N9" s="7">
-        <v>137461</v>
+        <v>139020</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -970,10 +970,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D10" s="7">
-        <v>124934</v>
+        <v>98139</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -985,10 +985,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="I10" s="7">
-        <v>102178</v>
+        <v>125669</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>288</v>
       </c>
       <c r="N10" s="7">
-        <v>227111</v>
+        <v>223808</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1021,25 +1021,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>138</v>
+      </c>
+      <c r="D11" s="7">
+        <v>98139</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>150</v>
       </c>
-      <c r="D11" s="7">
-        <v>124934</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>138</v>
-      </c>
       <c r="I11" s="7">
-        <v>102178</v>
+        <v>125669</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1054,7 +1054,7 @@
         <v>288</v>
       </c>
       <c r="N11" s="7">
-        <v>227111</v>
+        <v>223808</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1074,31 +1074,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>276</v>
+      </c>
+      <c r="D12" s="7">
+        <v>195778</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>288</v>
       </c>
-      <c r="D12" s="7">
-        <v>235396</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>240968</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>276</v>
-      </c>
-      <c r="I12" s="7">
-        <v>201366</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -1107,7 +1107,7 @@
         <v>564</v>
       </c>
       <c r="N12" s="7">
-        <v>436762</v>
+        <v>436746</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -1125,25 +1125,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>276</v>
+      </c>
+      <c r="D13" s="7">
+        <v>195778</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>288</v>
       </c>
-      <c r="D13" s="7">
-        <v>235396</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>276</v>
-      </c>
       <c r="I13" s="7">
-        <v>201366</v>
+        <v>240968</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1158,7 +1158,7 @@
         <v>564</v>
       </c>
       <c r="N13" s="7">
-        <v>436762</v>
+        <v>436746</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
